--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15337,7 +15337,7 @@
         <v>1045</v>
       </c>
       <c r="N187" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O187" t="n">
         <v>133</v>
@@ -15375,7 +15375,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41348</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="188">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="O188" t="n">
         <v>133</v>
@@ -15441,7 +15441,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41541</v>
+        <v>41545</v>
       </c>
     </row>
     <row r="189">
@@ -15478,7 +15478,9 @@
         <v>268</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>875</v>
+      </c>
       <c r="O189" t="n">
         <v>133</v>
       </c>
@@ -15507,7 +15509,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41702</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="190">
@@ -15565,7 +15567,7 @@
         <v>701</v>
       </c>
       <c r="T190" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U190" t="n">
         <v>579</v>
@@ -15587,7 +15589,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41791</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="191">
@@ -15601,7 +15603,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>1219</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -15616,9 +15620,13 @@
         <v>165</v>
       </c>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>491</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>3543</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -15627,7 +15635,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41801</v>
+        <v>41812</v>
       </c>
     </row>
   </sheetData>
@@ -30299,7 +30307,9 @@
       <c r="M187" t="n">
         <v>21</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>84</v>
+      </c>
       <c r="O187" t="n">
         <v>3</v>
       </c>
@@ -30373,7 +30383,9 @@
         <v>7</v>
       </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>84</v>
+      </c>
       <c r="O188" t="n">
         <v>3</v>
       </c>
@@ -30560,7 +30572,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>54</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -30575,9 +30589,13 @@
         <v>8</v>
       </c>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>25</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>350</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -44329,7 +44347,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -44357,7 +44375,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190">
@@ -44398,7 +44416,9 @@
       <c r="M190" t="n">
         <v>10</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
       <c r="O190" t="n">
         <v>0</v>
       </c>
@@ -44435,7 +44455,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
@@ -44449,7 +44469,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -44466,7 +44488,9 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>1</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -44475,7 +44499,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -56818,7 +56842,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -56842,7 +56866,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -56881,7 +56905,9 @@
       <c r="M190" t="n">
         <v>4</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
       <c r="O190" t="n">
         <v>0</v>
       </c>
@@ -56908,7 +56934,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -56922,7 +56948,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -56939,14 +56967,16 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -66618,7 +66648,9 @@
       </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="n">
@@ -66670,7 +66702,9 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -76988,7 +77022,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>1126</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -77001,9 +77037,13 @@
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>436</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>928</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -77012,7 +77052,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6800</v>
+        <v>6816</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15606,9 +15606,13 @@
       <c r="G191" t="n">
         <v>1219</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>1703</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>166</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -15635,7 +15639,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41812</v>
+        <v>41831</v>
       </c>
     </row>
   </sheetData>
@@ -30575,9 +30579,13 @@
       <c r="G191" t="n">
         <v>54</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>85</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>13</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -44472,9 +44480,13 @@
       <c r="G191" t="n">
         <v>3</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -56951,7 +56963,9 @@
       <c r="G191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -56976,7 +56990,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -77025,7 +77039,9 @@
       <c r="G191" t="n">
         <v>1126</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>163</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -77052,7 +77068,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6816</v>
+        <v>6817</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -12641,7 +12641,7 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="Y154" t="n">
         <v>2119</v>
@@ -12653,7 +12653,7 @@
         <v>4372</v>
       </c>
       <c r="AB154" t="n">
-        <v>34419</v>
+        <v>34420</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="n">
-        <v>5916</v>
+        <v>5918</v>
       </c>
       <c r="Y155" t="n">
         <v>2122</v>
@@ -12739,7 +12739,7 @@
         <v>4392</v>
       </c>
       <c r="AB155" t="n">
-        <v>34580</v>
+        <v>34582</v>
       </c>
     </row>
     <row r="156">
@@ -12813,7 +12813,7 @@
         <v>115</v>
       </c>
       <c r="X156" t="n">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="Y156" t="n">
         <v>2127</v>
@@ -12825,7 +12825,7 @@
         <v>4417</v>
       </c>
       <c r="AB156" t="n">
-        <v>34745</v>
+        <v>34747</v>
       </c>
     </row>
     <row r="157">
@@ -12901,7 +12901,7 @@
         <v>116</v>
       </c>
       <c r="X157" t="n">
-        <v>5983</v>
+        <v>5985</v>
       </c>
       <c r="Y157" t="n">
         <v>2136</v>
@@ -12913,7 +12913,7 @@
         <v>4462</v>
       </c>
       <c r="AB157" t="n">
-        <v>34973</v>
+        <v>34975</v>
       </c>
     </row>
     <row r="158">
@@ -12989,7 +12989,7 @@
         <v>116</v>
       </c>
       <c r="X158" t="n">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="Y158" t="n">
         <v>2145</v>
@@ -13001,7 +13001,7 @@
         <v>4492</v>
       </c>
       <c r="AB158" t="n">
-        <v>35189</v>
+        <v>35191</v>
       </c>
     </row>
     <row r="159">
@@ -13077,7 +13077,7 @@
         <v>116</v>
       </c>
       <c r="X159" t="n">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="Y159" t="n">
         <v>2148</v>
@@ -13089,7 +13089,7 @@
         <v>4523</v>
       </c>
       <c r="AB159" t="n">
-        <v>35347</v>
+        <v>35349</v>
       </c>
     </row>
     <row r="160">
@@ -13147,7 +13147,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="n">
-        <v>6049</v>
+        <v>6051</v>
       </c>
       <c r="Y160" t="n">
         <v>2151</v>
@@ -13159,7 +13159,7 @@
         <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35490</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="161">
@@ -13215,7 +13215,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>6062</v>
+        <v>6064</v>
       </c>
       <c r="Y161" t="n">
         <v>2152</v>
@@ -13227,7 +13227,7 @@
         <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35570</v>
+        <v>35572</v>
       </c>
     </row>
     <row r="162">
@@ -13303,7 +13303,7 @@
         <v>117</v>
       </c>
       <c r="X162" t="n">
-        <v>6081</v>
+        <v>6083</v>
       </c>
       <c r="Y162" t="n">
         <v>2155</v>
@@ -13315,7 +13315,7 @@
         <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35696</v>
+        <v>35698</v>
       </c>
     </row>
     <row r="163">
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6095</v>
+        <v>6097</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35828</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6114</v>
+        <v>6116</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36030</v>
+        <v>36032</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6131</v>
+        <v>6133</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36195</v>
+        <v>36197</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6153</v>
+        <v>6155</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36362</v>
+        <v>36364</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6169</v>
+        <v>6171</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36483</v>
+        <v>36485</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6176</v>
+        <v>6178</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36573</v>
+        <v>36575</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6201</v>
+        <v>6203</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36767</v>
+        <v>36769</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6225</v>
+        <v>6227</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37031</v>
+        <v>37033</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6248</v>
+        <v>6250</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37260</v>
+        <v>37262</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6284</v>
+        <v>6286</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37535</v>
+        <v>37537</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6308</v>
+        <v>6310</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37770</v>
+        <v>37772</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6333</v>
+        <v>6335</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>37977</v>
+        <v>37979</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6351</v>
+        <v>6353</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38107</v>
+        <v>38109</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6385</v>
+        <v>6387</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38332</v>
+        <v>38334</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6428</v>
+        <v>6430</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38600</v>
+        <v>38602</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6475</v>
+        <v>6477</v>
       </c>
       <c r="Y178" t="n">
         <v>2265</v>
@@ -14637,7 +14637,7 @@
         <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38914</v>
+        <v>38916</v>
       </c>
     </row>
     <row r="179">
@@ -14709,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="X179" t="n">
-        <v>6550</v>
+        <v>6552</v>
       </c>
       <c r="Y179" t="n">
         <v>2272</v>
@@ -14721,7 +14721,7 @@
         <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39221</v>
+        <v>39223</v>
       </c>
     </row>
     <row r="180">
@@ -14795,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="X180" t="n">
-        <v>6613</v>
+        <v>6615</v>
       </c>
       <c r="Y180" t="n">
         <v>2290</v>
@@ -14807,7 +14807,7 @@
         <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39537</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="181">
@@ -14863,7 +14863,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>6657</v>
+        <v>6659</v>
       </c>
       <c r="Y181" t="n">
         <v>2301</v>
@@ -14875,7 +14875,7 @@
         <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39738</v>
+        <v>39740</v>
       </c>
     </row>
     <row r="182">
@@ -14933,7 +14933,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>6687</v>
+        <v>6690</v>
       </c>
       <c r="Y182" t="n">
         <v>2304</v>
@@ -14945,7 +14945,7 @@
         <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39923</v>
+        <v>39926</v>
       </c>
     </row>
     <row r="183">
@@ -15021,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="X183" t="n">
-        <v>6754</v>
+        <v>6758</v>
       </c>
       <c r="Y183" t="n">
         <v>2319</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40162</v>
+        <v>40166</v>
       </c>
     </row>
     <row r="184">
@@ -15107,7 +15107,7 @@
         <v>134</v>
       </c>
       <c r="X184" t="n">
-        <v>6819</v>
+        <v>6824</v>
       </c>
       <c r="Y184" t="n">
         <v>2333</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40438</v>
+        <v>40443</v>
       </c>
     </row>
     <row r="185">
@@ -15193,7 +15193,7 @@
         <v>136</v>
       </c>
       <c r="X185" t="n">
-        <v>6853</v>
+        <v>6888</v>
       </c>
       <c r="Y185" t="n">
         <v>2345</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40786</v>
+        <v>40821</v>
       </c>
     </row>
     <row r="186">
@@ -15280,7 +15280,9 @@
       <c r="W186" t="n">
         <v>136</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>6962</v>
+      </c>
       <c r="Y186" t="n">
         <v>2353</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41060</v>
+        <v>41169</v>
       </c>
     </row>
     <row r="187">
@@ -15364,7 +15366,9 @@
       <c r="W187" t="n">
         <v>137</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>7042</v>
+      </c>
       <c r="Y187" t="n">
         <v>2366</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41349</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15430,7 +15434,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>7102</v>
+      </c>
       <c r="Y188" t="n">
         <v>2368</v>
       </c>
@@ -15441,7 +15447,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41545</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15498,7 +15504,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>7149</v>
+      </c>
       <c r="Y189" t="n">
         <v>2369</v>
       </c>
@@ -15509,7 +15517,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41708</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="190">
@@ -15578,7 +15586,9 @@
       <c r="W190" t="n">
         <v>137</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>7180</v>
+      </c>
       <c r="Y190" t="n">
         <v>2369</v>
       </c>
@@ -15589,7 +15599,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41795</v>
+        <v>42122</v>
       </c>
     </row>
     <row r="191">
@@ -15615,7 +15625,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1064</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -15639,7 +15651,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41831</v>
+        <v>42162</v>
       </c>
     </row>
   </sheetData>
@@ -29512,7 +29524,7 @@
         <v>7</v>
       </c>
       <c r="X177" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y177" t="n">
         <v>154</v>
@@ -29524,7 +29536,7 @@
         <v>139</v>
       </c>
       <c r="AB177" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="178">
@@ -29600,7 +29612,7 @@
         <v>7</v>
       </c>
       <c r="X178" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y178" t="n">
         <v>154</v>
@@ -29612,7 +29624,7 @@
         <v>139</v>
       </c>
       <c r="AB178" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="179">
@@ -29684,7 +29696,7 @@
         <v>7</v>
       </c>
       <c r="X179" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y179" t="n">
         <v>154</v>
@@ -29696,7 +29708,7 @@
         <v>139</v>
       </c>
       <c r="AB179" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="180">
@@ -29770,7 +29782,7 @@
         <v>7</v>
       </c>
       <c r="X180" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y180" t="n">
         <v>154</v>
@@ -29782,7 +29794,7 @@
         <v>140</v>
       </c>
       <c r="AB180" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="181">
@@ -29838,7 +29850,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y181" t="n">
         <v>154</v>
@@ -29850,7 +29862,7 @@
         <v>140</v>
       </c>
       <c r="AB181" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="182">
@@ -29908,7 +29920,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y182" t="n">
         <v>154</v>
@@ -29920,7 +29932,7 @@
         <v>140</v>
       </c>
       <c r="AB182" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="183">
@@ -29996,7 +30008,7 @@
         <v>7</v>
       </c>
       <c r="X183" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y183" t="n">
         <v>154</v>
@@ -30008,7 +30020,7 @@
         <v>141</v>
       </c>
       <c r="AB183" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="184">
@@ -30082,7 +30094,7 @@
         <v>7</v>
       </c>
       <c r="X184" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y184" t="n">
         <v>154</v>
@@ -30094,7 +30106,7 @@
         <v>141</v>
       </c>
       <c r="AB184" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="185">
@@ -30168,7 +30180,7 @@
         <v>7</v>
       </c>
       <c r="X185" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y185" t="n">
         <v>154</v>
@@ -30180,7 +30192,7 @@
         <v>141</v>
       </c>
       <c r="AB185" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="186">
@@ -30255,7 +30267,9 @@
       <c r="W186" t="n">
         <v>7</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>432</v>
+      </c>
       <c r="Y186" t="n">
         <v>155</v>
       </c>
@@ -30266,7 +30280,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="187">
@@ -30339,7 +30353,9 @@
       <c r="W187" t="n">
         <v>7</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>432</v>
+      </c>
       <c r="Y187" t="n">
         <v>155</v>
       </c>
@@ -30350,7 +30366,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="188">
@@ -30405,7 +30421,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>432</v>
+      </c>
       <c r="Y188" t="n">
         <v>155</v>
       </c>
@@ -30416,7 +30434,7 @@
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="189">
@@ -30471,7 +30489,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>432</v>
+      </c>
       <c r="Y189" t="n">
         <v>155</v>
       </c>
@@ -30482,7 +30502,7 @@
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="190">
@@ -30551,7 +30571,9 @@
       <c r="W190" t="n">
         <v>7</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>432</v>
+      </c>
       <c r="Y190" t="n">
         <v>155</v>
       </c>
@@ -30562,7 +30584,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191">
@@ -30588,7 +30610,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>21</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -30612,7 +30636,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -44170,7 +44194,9 @@
       <c r="W186" t="n">
         <v>0</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>16</v>
+      </c>
       <c r="Y186" t="n">
         <v>3</v>
       </c>
@@ -44181,7 +44207,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187">
@@ -44250,7 +44276,9 @@
       <c r="W187" t="n">
         <v>0</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>14</v>
+      </c>
       <c r="Y187" t="n">
         <v>3</v>
       </c>
@@ -44261,7 +44289,7 @@
         <v>19</v>
       </c>
       <c r="AB187" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188">
@@ -44310,7 +44338,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>16</v>
+      </c>
       <c r="Y188" t="n">
         <v>3</v>
       </c>
@@ -44321,7 +44351,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
@@ -44372,7 +44402,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>16</v>
+      </c>
       <c r="Y189" t="n">
         <v>3</v>
       </c>
@@ -44383,7 +44415,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190">
@@ -44452,7 +44484,9 @@
       <c r="W190" t="n">
         <v>0</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>16</v>
+      </c>
       <c r="Y190" t="n">
         <v>3</v>
       </c>
@@ -44463,7 +44497,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191">
@@ -44489,7 +44523,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>10</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -44511,7 +44547,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -56689,14 +56725,16 @@
         <v>0</v>
       </c>
       <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>5</v>
+      </c>
       <c r="Y186" t="n">
         <v>0</v>
       </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -56757,14 +56795,16 @@
         <v>0</v>
       </c>
       <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>5</v>
+      </c>
       <c r="Y187" t="n">
         <v>0</v>
       </c>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -56813,14 +56853,16 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>5</v>
+      </c>
       <c r="Y188" t="n">
         <v>0</v>
       </c>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -56871,14 +56913,16 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>5</v>
+      </c>
       <c r="Y189" t="n">
         <v>0</v>
       </c>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
@@ -56939,14 +56983,16 @@
         <v>0</v>
       </c>
       <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>5</v>
+      </c>
       <c r="Y190" t="n">
         <v>0</v>
       </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -56970,7 +57016,9 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>3</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -56990,7 +57038,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15572,7 +15572,7 @@
         <v>164</v>
       </c>
       <c r="S190" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T190" t="n">
         <v>490</v>
@@ -15599,7 +15599,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42122</v>
+        <v>42123</v>
       </c>
     </row>
     <row r="191">
@@ -15609,7 +15609,9 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>25</v>
+      </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -15635,7 +15637,9 @@
       <c r="R191" t="n">
         <v>165</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>702</v>
+      </c>
       <c r="T191" t="n">
         <v>491</v>
       </c>
@@ -15651,7 +15655,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>42162</v>
+        <v>42163</v>
       </c>
     </row>
   </sheetData>
@@ -30594,7 +30598,9 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -30620,7 +30626,9 @@
       <c r="R191" t="n">
         <v>8</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>18</v>
+      </c>
       <c r="T191" t="n">
         <v>25</v>
       </c>
@@ -44533,7 +44541,9 @@
       <c r="R191" t="n">
         <v>0</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>0</v>
+      </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="n">
@@ -44547,7 +44557,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6700</v>
+        <v>6701</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40166</v>
+        <v>40167</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6735</v>
+        <v>6736</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40443</v>
+        <v>40444</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40821</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6822</v>
+        <v>6823</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41169</v>
+        <v>41170</v>
       </c>
     </row>
     <row r="187">
@@ -15526,7 +15526,9 @@
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>2107</v>
+      </c>
       <c r="C190" t="n">
         <v>25</v>
       </c>
@@ -15545,7 +15547,9 @@
       <c r="H190" t="n">
         <v>1686</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>6979</v>
+      </c>
       <c r="J190" t="n">
         <v>164</v>
       </c>
@@ -15599,7 +15603,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42123</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="191">
@@ -15613,7 +15617,9 @@
         <v>25</v>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>2552</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
         <v>1219</v>
@@ -15655,7 +15661,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>42163</v>
+        <v>42220</v>
       </c>
     </row>
   </sheetData>
@@ -30515,7 +30521,9 @@
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>52</v>
+      </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
@@ -30534,7 +30542,9 @@
       <c r="H190" t="n">
         <v>85</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>298</v>
+      </c>
       <c r="J190" t="n">
         <v>13</v>
       </c>
@@ -30588,7 +30598,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="191">
@@ -30602,7 +30612,9 @@
         <v>0</v>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>99</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
         <v>54</v>
@@ -30644,7 +30656,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -44525,7 +44537,9 @@
       <c r="H191" t="n">
         <v>5</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>11</v>
+      </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
@@ -44557,7 +44571,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -57022,7 +57036,9 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15444,10 +15444,10 @@
         <v>344</v>
       </c>
       <c r="AA188" t="n">
-        <v>5994</v>
+        <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41794</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6046</v>
+        <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42004</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="190">
@@ -15620,7 +15620,9 @@
       <c r="E191" t="n">
         <v>2552</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>1046</v>
+      </c>
       <c r="G191" t="n">
         <v>1219</v>
       </c>
@@ -15649,7 +15651,9 @@
       <c r="T191" t="n">
         <v>491</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>580</v>
+      </c>
       <c r="V191" t="n">
         <v>3543</v>
       </c>
@@ -15659,9 +15663,11 @@
       <c r="Z191" t="n">
         <v>353</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>6134</v>
+      </c>
       <c r="AB191" t="n">
-        <v>42220</v>
+        <v>42294</v>
       </c>
     </row>
   </sheetData>
@@ -30615,7 +30621,9 @@
       <c r="E191" t="n">
         <v>99</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>35</v>
+      </c>
       <c r="G191" t="n">
         <v>54</v>
       </c>
@@ -30644,7 +30652,9 @@
       <c r="T191" t="n">
         <v>25</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>19</v>
+      </c>
       <c r="V191" t="n">
         <v>350</v>
       </c>
@@ -30654,7 +30664,9 @@
       <c r="Z191" t="n">
         <v>9</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>142</v>
+      </c>
       <c r="AB191" t="n">
         <v>2011</v>
       </c>
@@ -44046,7 +44058,7 @@
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -44067,7 +44079,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
@@ -44126,7 +44138,7 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -44147,7 +44159,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186">
@@ -44206,7 +44218,7 @@
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -44227,7 +44239,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
@@ -44288,7 +44300,7 @@
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -44309,7 +44321,7 @@
         <v>19</v>
       </c>
       <c r="AB187" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188">
@@ -44530,7 +44542,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
       <c r="G191" t="n">
         <v>3</v>
       </c>
@@ -44551,7 +44565,9 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
       <c r="R191" t="n">
         <v>0</v>
       </c>
@@ -44559,7 +44575,9 @@
         <v>0</v>
       </c>
       <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>2</v>
+      </c>
       <c r="V191" t="n">
         <v>1</v>
       </c>
@@ -44569,9 +44587,11 @@
       <c r="Z191" t="n">
         <v>4</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>26</v>
+      </c>
       <c r="AB191" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -57029,7 +57049,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
@@ -57048,13 +57070,17 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
       <c r="R191" t="n">
         <v>0</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>1</v>
+      </c>
       <c r="V191" t="n">
         <v>0</v>
       </c>
@@ -57064,7 +57090,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -66774,7 +66800,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -66785,7 +66813,9 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
@@ -66797,9 +66827,11 @@
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
       <c r="AB191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -76763,7 +76795,7 @@
         <v>416</v>
       </c>
       <c r="U184" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V184" t="n">
         <v>926</v>
@@ -76780,7 +76812,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6693</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="185">
@@ -76817,7 +76849,7 @@
         <v>420</v>
       </c>
       <c r="U185" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V185" t="n">
         <v>926</v>
@@ -76834,7 +76866,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="186">
@@ -76871,7 +76903,7 @@
         <v>421</v>
       </c>
       <c r="U186" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V186" t="n">
         <v>926</v>
@@ -76888,7 +76920,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>6720</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="187">
@@ -76925,7 +76957,7 @@
         <v>423</v>
       </c>
       <c r="U187" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V187" t="n">
         <v>926</v>
@@ -76942,7 +76974,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>6738</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="188">
@@ -76979,7 +77011,7 @@
         <v>423</v>
       </c>
       <c r="U188" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
@@ -76992,7 +77024,7 @@
       </c>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>6755</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="189">
@@ -77029,7 +77061,7 @@
         <v>423</v>
       </c>
       <c r="U189" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
@@ -77042,7 +77074,7 @@
       </c>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>6770</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="190">
@@ -77079,7 +77111,7 @@
         <v>432</v>
       </c>
       <c r="U190" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V190" t="n">
         <v>927</v>
@@ -77096,7 +77128,7 @@
       </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6790</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="191">
@@ -77109,7 +77141,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>964</v>
+      </c>
       <c r="G191" t="n">
         <v>1126</v>
       </c>
@@ -77130,7 +77164,9 @@
       <c r="T191" t="n">
         <v>436</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>81</v>
+      </c>
       <c r="V191" t="n">
         <v>928</v>
       </c>
@@ -77142,7 +77178,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6817</v>
+        <v>6825</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15024,7 +15024,7 @@
         <v>6758</v>
       </c>
       <c r="Y183" t="n">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="Z183" t="n">
         <v>334</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40167</v>
+        <v>40168</v>
       </c>
     </row>
     <row r="184">
@@ -15508,7 +15508,7 @@
         <v>7149</v>
       </c>
       <c r="Y189" t="n">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="Z189" t="n">
         <v>344</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42005</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="190">
@@ -15594,7 +15594,7 @@
         <v>7180</v>
       </c>
       <c r="Y190" t="n">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="Z190" t="n">
         <v>344</v>
@@ -15603,7 +15603,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42164</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="191">
@@ -15640,7 +15640,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>107</v>
+      </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>165</v>
@@ -15657,9 +15659,13 @@
       <c r="V191" t="n">
         <v>3543</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>137</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>2371</v>
+      </c>
       <c r="Z191" t="n">
         <v>353</v>
       </c>
@@ -15667,7 +15673,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42294</v>
+        <v>42296</v>
       </c>
     </row>
   </sheetData>
@@ -30641,7 +30647,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>8</v>
@@ -30658,9 +30666,13 @@
       <c r="V191" t="n">
         <v>350</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>7</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>155</v>
+      </c>
       <c r="Z191" t="n">
         <v>9</v>
       </c>
@@ -44564,7 +44576,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>1</v>
+      </c>
       <c r="Q191" t="n">
         <v>5</v>
       </c>
@@ -44581,9 +44595,13 @@
       <c r="V191" t="n">
         <v>1</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>0</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>3</v>
+      </c>
       <c r="Z191" t="n">
         <v>4</v>
       </c>
@@ -57086,7 +57104,9 @@
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
@@ -66825,7 +66845,9 @@
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="n">
         <v>6</v>
@@ -77170,9 +77192,13 @@
       <c r="V191" t="n">
         <v>928</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>126</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>320</v>
+      </c>
       <c r="Z191" t="n">
         <v>311</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15634,12 +15634,16 @@
         <v>166</v>
       </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>269</v>
+      </c>
       <c r="M191" t="n">
         <v>1064</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>134</v>
+      </c>
       <c r="P191" t="n">
         <v>107</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42296</v>
+        <v>42298</v>
       </c>
     </row>
   </sheetData>
@@ -30646,7 +30650,9 @@
         <v>21</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>3</v>
+      </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
@@ -44363,7 +44369,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
@@ -44395,7 +44401,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="189">
@@ -44425,7 +44431,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
@@ -44459,7 +44465,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190">
@@ -44495,7 +44501,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" t="n">
         <v>10</v>
@@ -44541,7 +44547,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
@@ -44570,12 +44576,16 @@
         <v>0</v>
       </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
       <c r="M191" t="n">
         <v>10</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
       <c r="P191" t="n">
         <v>1</v>
       </c>
@@ -44609,7 +44619,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -57081,12 +57091,16 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
       <c r="M191" t="n">
         <v>3</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="n">
         <v>3</v>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15633,7 +15633,9 @@
       <c r="J191" t="n">
         <v>166</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1003</v>
+      </c>
       <c r="L191" t="n">
         <v>269</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42298</v>
+        <v>42300</v>
       </c>
     </row>
   </sheetData>
@@ -30644,7 +30646,9 @@
       <c r="J191" t="n">
         <v>13</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>50</v>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>21</v>
@@ -44575,7 +44579,9 @@
       <c r="J191" t="n">
         <v>0</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
       <c r="L191" t="n">
         <v>2</v>
       </c>
@@ -44619,7 +44625,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -57090,7 +57096,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
       <c r="L191" t="n">
         <v>0</v>
       </c>
@@ -66841,7 +66849,9 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15649,7 +15649,9 @@
       <c r="P191" t="n">
         <v>107</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>1270</v>
+      </c>
       <c r="R191" t="n">
         <v>165</v>
       </c>
@@ -15679,7 +15681,47 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42300</v>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>1730</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>493</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>42337</v>
       </c>
     </row>
   </sheetData>
@@ -15693,7 +15735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30660,7 +30702,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>42</v>
+      </c>
       <c r="R191" t="n">
         <v>8</v>
       </c>
@@ -30690,6 +30734,46 @@
         <v>142</v>
       </c>
       <c r="AB191" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>85</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>25</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>2011</v>
       </c>
     </row>
@@ -30704,7 +30788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44520,7 +44604,7 @@
         <v>1</v>
       </c>
       <c r="Q190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R190" t="n">
         <v>1</v>
@@ -44551,7 +44635,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191">
@@ -44625,6 +44709,44 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>104</v>
       </c>
     </row>
@@ -44639,7 +44761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57047,7 +57169,7 @@
       </c>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R190" t="n">
         <v>0</v>
@@ -57070,7 +57192,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
@@ -57132,6 +57254,44 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>15</v>
       </c>
     </row>
@@ -57146,7 +57306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66880,6 +67040,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -66891,7 +67087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77231,6 +77427,46 @@
         <v>6825</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>163</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>441</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>6830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -77242,7 +77478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84466,6 +84702,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15485,7 +15485,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="O189" t="n">
         <v>133</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42004</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15562,7 +15562,9 @@
       <c r="M190" t="n">
         <v>1060</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>880</v>
+      </c>
       <c r="O190" t="n">
         <v>133</v>
       </c>
@@ -15597,13 +15599,13 @@
         <v>2371</v>
       </c>
       <c r="Z190" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AA190" t="n">
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42166</v>
+        <v>42176</v>
       </c>
     </row>
     <row r="191">
@@ -15642,7 +15644,9 @@
       <c r="M191" t="n">
         <v>1064</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>881</v>
+      </c>
       <c r="O191" t="n">
         <v>134</v>
       </c>
@@ -15681,7 +15685,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42308</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="192">
@@ -15708,7 +15712,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>166</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="n">
         <v>493</v>
@@ -15718,10 +15724,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>354</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42337</v>
+        <v>42345</v>
       </c>
     </row>
   </sheetData>
@@ -30761,7 +30769,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>8</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="n">
         <v>25</v>
@@ -30771,7 +30781,9 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>9</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
         <v>2011</v>
@@ -44629,13 +44641,13 @@
         <v>3</v>
       </c>
       <c r="Z190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA190" t="n">
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
@@ -44672,7 +44684,9 @@
       <c r="M191" t="n">
         <v>10</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="n">
         <v>0</v>
       </c>
@@ -44709,7 +44723,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192">
@@ -44736,7 +44750,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
@@ -44744,10 +44760,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>3</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -57227,7 +57245,9 @@
       <c r="M191" t="n">
         <v>3</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="n">
         <v>0</v>
       </c>
@@ -57281,7 +57301,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
@@ -67014,7 +67036,9 @@
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="n">
@@ -77366,11 +77390,11 @@
         <v>320</v>
       </c>
       <c r="Z190" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6791</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="191">
@@ -77461,10 +77485,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>314</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6830</v>
+        <v>6833</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15699,15 +15699,21 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>1226</v>
+      </c>
       <c r="H192" t="n">
         <v>1730</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>166</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1067</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -15719,8 +15725,12 @@
       <c r="T192" t="n">
         <v>493</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>583</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3548</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -15729,7 +15739,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42345</v>
+        <v>42363</v>
       </c>
     </row>
   </sheetData>
@@ -30756,15 +30766,21 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>54</v>
+      </c>
       <c r="H192" t="n">
         <v>85</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>13</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>21</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -30776,8 +30792,12 @@
       <c r="T192" t="n">
         <v>25</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>19</v>
+      </c>
+      <c r="V192" t="n">
+        <v>350</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -44548,7 +44568,7 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
@@ -44565,7 +44585,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190">
@@ -44626,7 +44646,7 @@
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -44647,7 +44667,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191">
@@ -44704,7 +44724,7 @@
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -44723,7 +44743,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192">
@@ -44742,10 +44762,14 @@
         <v>5</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>8</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -44755,8 +44779,12 @@
       </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>3</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -44765,7 +44793,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57296,7 +57324,9 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -57306,15 +57336,19 @@
       </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -67090,7 +67124,9 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -77462,7 +77498,9 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>1126</v>
+      </c>
       <c r="H192" t="n">
         <v>163</v>
       </c>
@@ -77480,8 +77518,12 @@
       <c r="T192" t="n">
         <v>441</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>81</v>
+      </c>
+      <c r="V192" t="n">
+        <v>928</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15721,7 +15721,9 @@
       <c r="R192" t="n">
         <v>166</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>713</v>
+      </c>
       <c r="T192" t="n">
         <v>493</v>
       </c>
@@ -15739,7 +15741,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42363</v>
+        <v>42374</v>
       </c>
     </row>
   </sheetData>
@@ -30788,7 +30790,9 @@
       <c r="R192" t="n">
         <v>8</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>18</v>
+      </c>
       <c r="T192" t="n">
         <v>25</v>
       </c>
@@ -44777,7 +44781,9 @@
       <c r="R192" t="n">
         <v>0</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
         <v>3</v>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C190" t="n">
         <v>25</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42176</v>
+        <v>42177</v>
       </c>
     </row>
     <row r="191">
@@ -15614,7 +15614,9 @@
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>2126</v>
+      </c>
       <c r="C191" t="n">
         <v>25</v>
       </c>
@@ -15685,7 +15687,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42314</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="192">
@@ -15697,7 +15699,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>2561</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
         <v>1226</v>
@@ -15741,7 +15745,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42374</v>
+        <v>42402</v>
       </c>
     </row>
   </sheetData>
@@ -30687,7 +30691,9 @@
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>52</v>
+      </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
@@ -30766,7 +30772,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>99</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
         <v>54</v>
@@ -44759,7 +44767,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>5</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -44777,7 +44787,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
@@ -44799,7 +44811,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -57320,7 +57332,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -57336,7 +57350,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
@@ -57354,7 +57370,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -67113,7 +67129,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
@@ -67125,7 +67143,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
@@ -67139,7 +67159,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15697,12 +15697,16 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>25</v>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>2561</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1051</v>
+      </c>
       <c r="G192" t="n">
         <v>1226</v>
       </c>
@@ -15745,7 +15749,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42402</v>
+        <v>42407</v>
       </c>
     </row>
   </sheetData>
@@ -30770,12 +30774,16 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>99</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>35</v>
+      </c>
       <c r="G192" t="n">
         <v>54</v>
       </c>
@@ -44770,7 +44778,9 @@
       <c r="E192" t="n">
         <v>5</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
         <v>5</v>
@@ -57335,7 +57345,9 @@
       <c r="E192" t="n">
         <v>2</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
         <v>0</v>
@@ -67132,7 +67144,9 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -77523,7 +77537,9 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>966</v>
+      </c>
       <c r="G192" t="n">
         <v>1126</v>
       </c>
@@ -77558,7 +77574,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6833</v>
+        <v>6835</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40168</v>
+        <v>40167</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40444</v>
+        <v>40443</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6775</v>
+        <v>6773</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40822</v>
+        <v>40820</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6823</v>
+        <v>6821</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41170</v>
+        <v>41168</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6867</v>
+        <v>6865</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41536</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6911</v>
+        <v>6909</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6944</v>
+        <v>6942</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42008</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6979</v>
+        <v>6981</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42177</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="191">
@@ -15633,7 +15633,9 @@
       <c r="H191" t="n">
         <v>1703</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>7036</v>
+      </c>
       <c r="J191" t="n">
         <v>166</v>
       </c>
@@ -15687,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42333</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="192">
@@ -15747,9 +15749,11 @@
       <c r="Z192" t="n">
         <v>354</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>6225</v>
+      </c>
       <c r="AB192" t="n">
-        <v>42407</v>
+        <v>42555</v>
       </c>
     </row>
   </sheetData>
@@ -30714,7 +30718,9 @@
       <c r="H191" t="n">
         <v>85</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>298</v>
+      </c>
       <c r="J191" t="n">
         <v>13</v>
       </c>
@@ -30824,7 +30830,9 @@
       <c r="Z192" t="n">
         <v>9</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>142</v>
+      </c>
       <c r="AB192" t="n">
         <v>2011</v>
       </c>
@@ -44785,7 +44793,9 @@
       <c r="H192" t="n">
         <v>5</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>16</v>
+      </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
@@ -44819,9 +44829,11 @@
       <c r="Z192" t="n">
         <v>3</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>27</v>
+      </c>
       <c r="AB192" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -57352,7 +57364,9 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
@@ -67171,9 +67185,11 @@
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>7</v>
+      </c>
       <c r="AB192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15725,7 +15725,9 @@
         <v>1067</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>134</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
@@ -15743,7 +15745,9 @@
       <c r="V192" t="n">
         <v>3548</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>137</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -30806,7 +30810,9 @@
         <v>21</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>3</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
@@ -30824,7 +30830,9 @@
       <c r="V192" t="n">
         <v>350</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>7</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -44805,7 +44813,9 @@
         <v>8</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
         <v>4</v>
@@ -44823,7 +44833,9 @@
       <c r="V192" t="n">
         <v>1</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -57374,7 +57386,9 @@
         <v>1</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
         <v>2</v>
@@ -77582,7 +77596,9 @@
       <c r="V192" t="n">
         <v>928</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>127</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -77590,7 +77606,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6835</v>
+        <v>6836</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15719,7 +15719,9 @@
       <c r="J192" t="n">
         <v>166</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1005</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1067</v>
@@ -15728,7 +15730,9 @@
       <c r="O192" t="n">
         <v>134</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>107</v>
+      </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>166</v>
@@ -15757,7 +15761,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42555</v>
+        <v>42557</v>
       </c>
     </row>
   </sheetData>
@@ -30804,7 +30808,9 @@
       <c r="J192" t="n">
         <v>13</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>50</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>21</v>
@@ -30813,7 +30819,9 @@
       <c r="O192" t="n">
         <v>3</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>8</v>
@@ -44807,7 +44815,9 @@
       <c r="J192" t="n">
         <v>0</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>8</v>
@@ -44816,7 +44826,9 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>1</v>
+      </c>
       <c r="Q192" t="n">
         <v>4</v>
       </c>
@@ -57380,7 +57392,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -67179,7 +67193,9 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15643,7 +15643,7 @@
         <v>1003</v>
       </c>
       <c r="L191" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M191" t="n">
         <v>1064</v>
@@ -15689,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42390</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="192">
@@ -15722,7 +15722,9 @@
       <c r="K192" t="n">
         <v>1005</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>270</v>
+      </c>
       <c r="M192" t="n">
         <v>1067</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42557</v>
+        <v>42558</v>
       </c>
     </row>
   </sheetData>
@@ -30735,7 +30737,9 @@
       <c r="K191" t="n">
         <v>50</v>
       </c>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>7</v>
+      </c>
       <c r="M191" t="n">
         <v>21</v>
       </c>
@@ -30811,7 +30815,9 @@
       <c r="K192" t="n">
         <v>50</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>7</v>
+      </c>
       <c r="M192" t="n">
         <v>21</v>
       </c>
@@ -44818,7 +44824,9 @@
       <c r="K192" t="n">
         <v>1</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
       <c r="M192" t="n">
         <v>8</v>
       </c>
@@ -57395,7 +57403,9 @@
       <c r="K192" t="n">
         <v>0</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15735,7 +15735,9 @@
       <c r="P192" t="n">
         <v>107</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>1280</v>
+      </c>
       <c r="R192" t="n">
         <v>166</v>
       </c>
@@ -15763,7 +15765,49 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42558</v>
+        <v>42568</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>1765</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>494</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>361</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>42611</v>
       </c>
     </row>
   </sheetData>
@@ -15777,7 +15821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30828,7 +30872,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>43</v>
+      </c>
       <c r="R192" t="n">
         <v>8</v>
       </c>
@@ -30856,7 +30902,49 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2011</v>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>85</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>25</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -30870,7 +30958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44838,7 +44926,7 @@
         <v>1</v>
       </c>
       <c r="Q192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -44865,7 +44953,47 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -44879,7 +45007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57415,7 +57543,7 @@
       </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -57434,6 +57562,44 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
         <v>12</v>
       </c>
     </row>
@@ -57448,7 +57614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67212,7 +67378,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
@@ -67229,7 +67395,43 @@
         <v>7</v>
       </c>
       <c r="AB192" t="n">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -67243,7 +67445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77635,6 +77837,48 @@
         <v>6836</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>163</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>445</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>316</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>6842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -77646,7 +77890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84906,6 +85150,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15251,7 +15251,7 @@
         <v>1034</v>
       </c>
       <c r="N186" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O186" t="n">
         <v>133</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41168</v>
+        <v>41169</v>
       </c>
     </row>
     <row r="187">
@@ -15339,7 +15339,7 @@
         <v>1045</v>
       </c>
       <c r="N187" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O187" t="n">
         <v>133</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41536</v>
+        <v>41537</v>
       </c>
     </row>
     <row r="188">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O188" t="n">
         <v>133</v>
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41793</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O189" t="n">
         <v>133</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42006</v>
+        <v>42007</v>
       </c>
     </row>
     <row r="190">
@@ -15563,7 +15563,7 @@
         <v>1060</v>
       </c>
       <c r="N190" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O190" t="n">
         <v>133</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42179</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="191">
@@ -15649,7 +15649,7 @@
         <v>1064</v>
       </c>
       <c r="N191" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O191" t="n">
         <v>134</v>
@@ -15689,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42391</v>
+        <v>42392</v>
       </c>
     </row>
     <row r="192">
@@ -15765,7 +15765,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42568</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="193">
@@ -15792,7 +15792,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>166</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="n">
         <v>494</v>
@@ -15807,7 +15809,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42611</v>
+        <v>42612</v>
       </c>
     </row>
   </sheetData>
@@ -30929,7 +30931,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>8</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="n">
         <v>25</v>
@@ -44918,7 +44922,9 @@
       <c r="M192" t="n">
         <v>8</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
@@ -44980,7 +44986,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
@@ -57537,7 +57545,9 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
@@ -57589,7 +57599,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
@@ -67374,7 +67386,9 @@
       </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15779,7 +15779,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>1229</v>
+      </c>
       <c r="H193" t="n">
         <v>1765</v>
       </c>
@@ -15800,7 +15802,9 @@
         <v>494</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>3551</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -15809,7 +15813,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42612</v>
+        <v>42618</v>
       </c>
     </row>
   </sheetData>
@@ -30918,7 +30922,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>54</v>
+      </c>
       <c r="H193" t="n">
         <v>85</v>
       </c>
@@ -30939,7 +30945,9 @@
         <v>25</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>350</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -44992,7 +45000,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>1</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -57605,7 +57615,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>0</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -67438,7 +67450,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>0</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -77862,7 +77876,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>1127</v>
+      </c>
       <c r="H193" t="n">
         <v>163</v>
       </c>
@@ -77881,7 +77897,9 @@
         <v>445</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>928</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -77890,7 +77908,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>6842</v>
+        <v>6843</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15786,10 +15786,14 @@
         <v>1765</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>166</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1077</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -15797,7 +15801,9 @@
       <c r="R193" t="n">
         <v>166</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>718</v>
+      </c>
       <c r="T193" t="n">
         <v>494</v>
       </c>
@@ -15813,7 +15819,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42618</v>
+        <v>42633</v>
       </c>
     </row>
   </sheetData>
@@ -30929,10 +30935,14 @@
         <v>85</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>13</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>21</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -30940,7 +30950,9 @@
       <c r="R193" t="n">
         <v>8</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>18</v>
+      </c>
       <c r="T193" t="n">
         <v>25</v>
       </c>
@@ -44986,10 +44998,14 @@
         <v>5</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>7</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -44997,7 +45013,9 @@
       <c r="R193" t="n">
         <v>0</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>0</v>
+      </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="n">
@@ -45011,7 +45029,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57604,7 +57622,9 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15775,7 +15775,9 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>25</v>
+      </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -15807,7 +15809,9 @@
       <c r="T193" t="n">
         <v>494</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>584</v>
+      </c>
       <c r="V193" t="n">
         <v>3551</v>
       </c>
@@ -15819,7 +15823,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42633</v>
+        <v>42634</v>
       </c>
     </row>
   </sheetData>
@@ -30924,7 +30928,9 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -30956,7 +30962,9 @@
       <c r="T193" t="n">
         <v>25</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>19</v>
+      </c>
       <c r="V193" t="n">
         <v>350</v>
       </c>
@@ -45017,7 +45025,9 @@
         <v>0</v>
       </c>
       <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>5</v>
+      </c>
       <c r="V193" t="n">
         <v>1</v>
       </c>
@@ -45029,7 +45039,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -57634,7 +57644,9 @@
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>2</v>
+      </c>
       <c r="V193" t="n">
         <v>0</v>
       </c>
@@ -57644,7 +57656,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -77916,7 +77928,9 @@
       <c r="T193" t="n">
         <v>445</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>81</v>
+      </c>
       <c r="V193" t="n">
         <v>928</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -13147,7 +13147,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="n">
-        <v>6051</v>
+        <v>6053</v>
       </c>
       <c r="Y160" t="n">
         <v>2151</v>
@@ -13159,7 +13159,7 @@
         <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35492</v>
+        <v>35494</v>
       </c>
     </row>
     <row r="161">
@@ -13215,7 +13215,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>6064</v>
+        <v>6066</v>
       </c>
       <c r="Y161" t="n">
         <v>2152</v>
@@ -13227,7 +13227,7 @@
         <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35572</v>
+        <v>35574</v>
       </c>
     </row>
     <row r="162">
@@ -13303,7 +13303,7 @@
         <v>117</v>
       </c>
       <c r="X162" t="n">
-        <v>6083</v>
+        <v>6085</v>
       </c>
       <c r="Y162" t="n">
         <v>2155</v>
@@ -13315,7 +13315,7 @@
         <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35698</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="163">
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6097</v>
+        <v>6099</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35830</v>
+        <v>35832</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6116</v>
+        <v>6118</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36032</v>
+        <v>36034</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6133</v>
+        <v>6135</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36197</v>
+        <v>36199</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6155</v>
+        <v>6157</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36364</v>
+        <v>36366</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6171</v>
+        <v>6173</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36485</v>
+        <v>36487</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6178</v>
+        <v>6180</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36575</v>
+        <v>36577</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6203</v>
+        <v>6205</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36769</v>
+        <v>36771</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37033</v>
+        <v>37035</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6250</v>
+        <v>6252</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37262</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6286</v>
+        <v>6288</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37537</v>
+        <v>37539</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6310</v>
+        <v>6312</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37772</v>
+        <v>37774</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6335</v>
+        <v>6337</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>37979</v>
+        <v>37981</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6353</v>
+        <v>6355</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38109</v>
+        <v>38111</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6387</v>
+        <v>6389</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38334</v>
+        <v>38336</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6430</v>
+        <v>6432</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38602</v>
+        <v>38604</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6477</v>
+        <v>6479</v>
       </c>
       <c r="Y178" t="n">
         <v>2265</v>
@@ -14637,7 +14637,7 @@
         <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38916</v>
+        <v>38918</v>
       </c>
     </row>
     <row r="179">
@@ -14709,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="X179" t="n">
-        <v>6552</v>
+        <v>6554</v>
       </c>
       <c r="Y179" t="n">
         <v>2272</v>
@@ -14721,7 +14721,7 @@
         <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39223</v>
+        <v>39225</v>
       </c>
     </row>
     <row r="180">
@@ -14795,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="X180" t="n">
-        <v>6615</v>
+        <v>6617</v>
       </c>
       <c r="Y180" t="n">
         <v>2290</v>
@@ -14807,7 +14807,7 @@
         <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39539</v>
+        <v>39541</v>
       </c>
     </row>
     <row r="181">
@@ -14863,7 +14863,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>6659</v>
+        <v>6661</v>
       </c>
       <c r="Y181" t="n">
         <v>2301</v>
@@ -14875,7 +14875,7 @@
         <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39740</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="182">
@@ -14933,7 +14933,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>6690</v>
+        <v>6692</v>
       </c>
       <c r="Y182" t="n">
         <v>2304</v>
@@ -14945,7 +14945,7 @@
         <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39926</v>
+        <v>39928</v>
       </c>
     </row>
     <row r="183">
@@ -15021,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="X183" t="n">
-        <v>6758</v>
+        <v>6760</v>
       </c>
       <c r="Y183" t="n">
         <v>2320</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40167</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="184">
@@ -15107,7 +15107,7 @@
         <v>134</v>
       </c>
       <c r="X184" t="n">
-        <v>6824</v>
+        <v>6826</v>
       </c>
       <c r="Y184" t="n">
         <v>2333</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40443</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="185">
@@ -15193,7 +15193,7 @@
         <v>136</v>
       </c>
       <c r="X185" t="n">
-        <v>6888</v>
+        <v>6890</v>
       </c>
       <c r="Y185" t="n">
         <v>2345</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40820</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15281,7 +15281,7 @@
         <v>136</v>
       </c>
       <c r="X186" t="n">
-        <v>6962</v>
+        <v>6964</v>
       </c>
       <c r="Y186" t="n">
         <v>2353</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41169</v>
+        <v>41171</v>
       </c>
     </row>
     <row r="187">
@@ -15367,7 +15367,7 @@
         <v>137</v>
       </c>
       <c r="X187" t="n">
-        <v>7042</v>
+        <v>7043</v>
       </c>
       <c r="Y187" t="n">
         <v>2366</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41537</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15435,7 +15435,7 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="n">
-        <v>7102</v>
+        <v>7103</v>
       </c>
       <c r="Y188" t="n">
         <v>2368</v>
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41794</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15505,7 +15505,7 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="Y189" t="n">
         <v>2368</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42007</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15593,7 +15593,7 @@
         <v>137</v>
       </c>
       <c r="X190" t="n">
-        <v>7180</v>
+        <v>7242</v>
       </c>
       <c r="Y190" t="n">
         <v>2371</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42180</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="191">
@@ -15678,7 +15678,9 @@
       <c r="W191" t="n">
         <v>137</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>7330</v>
+      </c>
       <c r="Y191" t="n">
         <v>2371</v>
       </c>
@@ -15689,7 +15691,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42392</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="192">
@@ -15698,7 +15700,9 @@
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>2146</v>
+      </c>
       <c r="C192" t="n">
         <v>25</v>
       </c>
@@ -15756,7 +15760,9 @@
       <c r="W192" t="n">
         <v>137</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>7380</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>354</v>
@@ -15765,7 +15771,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42569</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="193">
@@ -15778,9 +15784,15 @@
       <c r="C193" t="n">
         <v>25</v>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>135</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2584</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1058</v>
+      </c>
       <c r="G193" t="n">
         <v>1229</v>
       </c>
@@ -15823,7 +15835,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42634</v>
+        <v>42886</v>
       </c>
     </row>
   </sheetData>
@@ -30831,7 +30843,9 @@
       <c r="W191" t="n">
         <v>7</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>432</v>
+      </c>
       <c r="Y191" t="n">
         <v>155</v>
       </c>
@@ -30851,7 +30865,9 @@
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>52</v>
+      </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
@@ -30909,7 +30925,9 @@
       <c r="W192" t="n">
         <v>7</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>432</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>9</v>
@@ -30931,9 +30949,15 @@
       <c r="C193" t="n">
         <v>0</v>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>99</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35</v>
+      </c>
       <c r="G193" t="n">
         <v>54</v>
       </c>
@@ -44902,7 +44926,9 @@
       <c r="W191" t="n">
         <v>0</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>16</v>
+      </c>
       <c r="Y191" t="n">
         <v>3</v>
       </c>
@@ -44978,7 +45004,9 @@
       <c r="W192" t="n">
         <v>0</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>13</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>3</v>
@@ -44987,7 +45015,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193">
@@ -44998,9 +45026,13 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
         <v>5</v>
@@ -45039,7 +45071,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57541,7 +57573,9 @@
         <v>0</v>
       </c>
       <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>5</v>
+      </c>
       <c r="Y191" t="n">
         <v>0</v>
       </c>
@@ -57605,12 +57639,14 @@
         <v>0</v>
       </c>
       <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>4</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -57621,9 +57657,13 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
         <v>1</v>
@@ -57656,7 +57696,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -67466,7 +67506,9 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -77907,7 +77949,9 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>967</v>
+      </c>
       <c r="G193" t="n">
         <v>1127</v>
       </c>
@@ -77942,7 +77986,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>6843</v>
+        <v>6844</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6700</v>
+        <v>6701</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40169</v>
+        <v>40170</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6735</v>
+        <v>6736</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40445</v>
+        <v>40446</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40822</v>
+        <v>40823</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6821</v>
+        <v>6822</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41171</v>
+        <v>41172</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6865</v>
+        <v>6866</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41539</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6942</v>
+        <v>6943</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42008</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6981</v>
+        <v>6982</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42242</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="191">
@@ -15634,7 +15634,7 @@
         <v>1703</v>
       </c>
       <c r="I191" t="n">
-        <v>7036</v>
+        <v>7037</v>
       </c>
       <c r="J191" t="n">
         <v>166</v>
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6134</v>
+        <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42542</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="192">
@@ -15719,7 +15719,9 @@
       <c r="H192" t="n">
         <v>1730</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>7072</v>
+      </c>
       <c r="J192" t="n">
         <v>166</v>
       </c>
@@ -15768,10 +15770,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6225</v>
+        <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42789</v>
+        <v>42826</v>
       </c>
     </row>
     <row r="193">
@@ -15810,7 +15812,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>107</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>166</v>
@@ -15833,9 +15837,11 @@
       <c r="Z193" t="n">
         <v>361</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>6298</v>
+      </c>
       <c r="AB193" t="n">
-        <v>42886</v>
+        <v>42995</v>
       </c>
     </row>
   </sheetData>
@@ -30884,7 +30890,9 @@
       <c r="H192" t="n">
         <v>85</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>299</v>
+      </c>
       <c r="J192" t="n">
         <v>13</v>
       </c>
@@ -30936,7 +30944,7 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="193">
@@ -30975,7 +30983,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>8</v>
@@ -30998,9 +31008,11 @@
       <c r="Z193" t="n">
         <v>9</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>142</v>
+      </c>
       <c r="AB193" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -45037,7 +45049,9 @@
       <c r="H193" t="n">
         <v>5</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>21</v>
+      </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
@@ -45048,7 +45062,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>1</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>0</v>
@@ -45069,9 +45085,11 @@
       <c r="Z193" t="n">
         <v>2</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>28</v>
+      </c>
       <c r="AB193" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -57668,7 +57686,9 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
@@ -67531,7 +67551,9 @@
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="inlineStr"/>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
       <c r="AB193" t="n">
         <v>10</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15831,7 +15831,9 @@
       <c r="V193" t="n">
         <v>3551</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>137</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -31002,7 +31004,9 @@
       <c r="V193" t="n">
         <v>350</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>7</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -45079,7 +45083,9 @@
       <c r="V193" t="n">
         <v>1</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>0</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -78000,7 +78006,9 @@
       <c r="V193" t="n">
         <v>928</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>127</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15729,7 +15729,7 @@
         <v>1005</v>
       </c>
       <c r="L192" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M192" t="n">
         <v>1067</v>
@@ -15773,7 +15773,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42826</v>
+        <v>42828</v>
       </c>
     </row>
     <row r="193">
@@ -15806,7 +15806,9 @@
         <v>166</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>273</v>
+      </c>
       <c r="M193" t="n">
         <v>1077</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>42995</v>
+        <v>42998</v>
       </c>
     </row>
   </sheetData>
@@ -30979,7 +30981,9 @@
         <v>13</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>7</v>
+      </c>
       <c r="M193" t="n">
         <v>21</v>
       </c>
@@ -44748,7 +44752,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
@@ -44795,7 +44799,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190">
@@ -44894,7 +44898,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>5</v>
@@ -44955,7 +44959,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
@@ -44973,7 +44977,9 @@
       <c r="F192" t="n">
         <v>1</v>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
       <c r="H192" t="n">
         <v>5</v>
       </c>
@@ -44987,7 +44993,7 @@
         <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M192" t="n">
         <v>8</v>
@@ -45031,7 +45037,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193">
@@ -45049,7 +45055,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>5</v>
+      </c>
       <c r="H193" t="n">
         <v>5</v>
       </c>
@@ -45060,7 +45068,9 @@
         <v>0</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
       <c r="M193" t="n">
         <v>7</v>
       </c>
@@ -45095,7 +45105,7 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -57491,7 +57501,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
@@ -57540,7 +57550,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -57557,7 +57567,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -57606,7 +57616,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
@@ -57624,7 +57634,9 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
@@ -57670,7 +57682,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -57688,7 +57700,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
       <c r="H193" t="n">
         <v>1</v>
       </c>
@@ -57697,7 +57711,9 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -57722,7 +57738,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -85175,7 +85175,9 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>71961</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
@@ -85195,7 +85197,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="190">
@@ -85231,7 +85233,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="191">
@@ -85267,7 +85269,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="192">
@@ -85303,7 +85305,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="193">
@@ -85339,7 +85341,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15805,7 +15805,9 @@
       <c r="J193" t="n">
         <v>166</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1009</v>
+      </c>
       <c r="L193" t="n">
         <v>273</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>42998</v>
+        <v>43002</v>
       </c>
     </row>
   </sheetData>
@@ -30980,7 +30982,9 @@
       <c r="J193" t="n">
         <v>13</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>50</v>
+      </c>
       <c r="L193" t="n">
         <v>7</v>
       </c>
@@ -45067,7 +45071,9 @@
       <c r="J193" t="n">
         <v>0</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
       <c r="L193" t="n">
         <v>3</v>
       </c>
@@ -57710,7 +57716,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
       <c r="L193" t="n">
         <v>0</v>
       </c>
@@ -67555,7 +67563,9 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15819,7 +15819,9 @@
       <c r="P193" t="n">
         <v>107</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>1294</v>
+      </c>
       <c r="R193" t="n">
         <v>166</v>
       </c>
@@ -15847,7 +15849,51 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43002</v>
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1799</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>167</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>496</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>371</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>43063</v>
       </c>
     </row>
   </sheetData>
@@ -15861,7 +15907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30996,7 +31042,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>43</v>
+      </c>
       <c r="R193" t="n">
         <v>8</v>
       </c>
@@ -31024,6 +31072,50 @@
         <v>142</v>
       </c>
       <c r="AB193" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>85</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>8</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>25</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -31038,7 +31130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45012,7 +45104,7 @@
         <v>1</v>
       </c>
       <c r="Q192" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -45041,7 +45133,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193">
@@ -45085,7 +45177,9 @@
       <c r="P193" t="n">
         <v>1</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>7</v>
+      </c>
       <c r="R193" t="n">
         <v>0</v>
       </c>
@@ -45111,7 +45205,49 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>110</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -45125,7 +45261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57728,7 +57864,9 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
       <c r="R193" t="n">
         <v>0</v>
       </c>
@@ -57746,6 +57884,46 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>14</v>
       </c>
     </row>
@@ -57760,7 +57938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67571,7 +67749,9 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
@@ -67587,6 +67767,42 @@
         <v>7</v>
       </c>
       <c r="AB193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>10</v>
       </c>
     </row>
@@ -67601,7 +67817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78045,6 +78261,48 @@
         <v>6844</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>163</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>454</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>317</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>6854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78056,7 +78314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85354,6 +85612,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15884,7 +15884,9 @@
         <v>496</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>3556</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -15893,7 +15895,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43063</v>
+        <v>43068</v>
       </c>
     </row>
   </sheetData>
@@ -31107,7 +31109,9 @@
         <v>25</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>350</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -45238,7 +45242,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>1</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -57917,7 +57923,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -67796,7 +67804,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -78291,7 +78301,9 @@
         <v>454</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>928</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15649,7 +15649,7 @@
         <v>1064</v>
       </c>
       <c r="N191" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O191" t="n">
         <v>134</v>
@@ -15691,7 +15691,7 @@
         <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="192">
@@ -15734,7 +15734,9 @@
       <c r="M192" t="n">
         <v>1067</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>886</v>
+      </c>
       <c r="O192" t="n">
         <v>134</v>
       </c>
@@ -15773,7 +15775,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42828</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="193">
@@ -15814,7 +15816,9 @@
       <c r="M193" t="n">
         <v>1077</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>887</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>107</v>
@@ -15849,7 +15853,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43016</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="194">
@@ -15863,7 +15867,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>1233</v>
+      </c>
       <c r="H194" t="n">
         <v>1799</v>
       </c>
@@ -15883,11 +15889,15 @@
       <c r="T194" t="n">
         <v>496</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>587</v>
+      </c>
       <c r="V194" t="n">
         <v>3556</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>137</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -15895,7 +15905,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43068</v>
+        <v>43080</v>
       </c>
     </row>
   </sheetData>
@@ -31088,7 +31098,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>54</v>
+      </c>
       <c r="H194" t="n">
         <v>85</v>
       </c>
@@ -31108,11 +31120,15 @@
       <c r="T194" t="n">
         <v>25</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>19</v>
+      </c>
       <c r="V194" t="n">
         <v>350</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>7</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -45176,7 +45192,9 @@
       <c r="M193" t="n">
         <v>7</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>1</v>
@@ -45223,7 +45241,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
       <c r="H194" t="n">
         <v>6</v>
       </c>
@@ -45241,11 +45261,15 @@
       </c>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>5</v>
+      </c>
       <c r="V194" t="n">
         <v>1</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -57867,7 +57891,9 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="n">
@@ -57904,7 +57930,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
@@ -57922,7 +57950,9 @@
       </c>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>2</v>
+      </c>
       <c r="V194" t="n">
         <v>0</v>
       </c>
@@ -67754,7 +67784,9 @@
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="n">
@@ -78282,7 +78314,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>1130</v>
+      </c>
       <c r="H194" t="n">
         <v>163</v>
       </c>
@@ -78300,11 +78334,15 @@
       <c r="T194" t="n">
         <v>454</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>81</v>
+      </c>
       <c r="V194" t="n">
         <v>928</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>127</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -78312,7 +78350,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>6854</v>
+        <v>6857</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15877,7 +15877,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1083</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -15885,7 +15887,9 @@
       <c r="R194" t="n">
         <v>167</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>721</v>
+      </c>
       <c r="T194" t="n">
         <v>496</v>
       </c>
@@ -15905,7 +15909,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43080</v>
+        <v>43089</v>
       </c>
     </row>
   </sheetData>
@@ -31108,7 +31112,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>21</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -31116,7 +31122,9 @@
       <c r="R194" t="n">
         <v>8</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>18</v>
+      </c>
       <c r="T194" t="n">
         <v>25</v>
       </c>
@@ -45251,7 +45259,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>8</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -45259,7 +45269,9 @@
       <c r="R194" t="n">
         <v>0</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="n">
         <v>5</v>
@@ -45277,7 +45289,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -57940,7 +57952,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15865,7 +15865,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2610</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>1233</v>
@@ -15874,7 +15876,9 @@
         <v>1799</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>166</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -15909,7 +15913,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43089</v>
+        <v>43115</v>
       </c>
     </row>
   </sheetData>
@@ -31100,7 +31104,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>99</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>54</v>
@@ -31109,7 +31115,9 @@
         <v>85</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>13</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -45247,7 +45255,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>4</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>5</v>
@@ -45256,7 +45266,9 @@
         <v>6</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -45289,7 +45301,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -57940,7 +57952,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>2</v>
@@ -67833,7 +67847,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -67859,7 +67875,7 @@
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15784,7 +15784,9 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>2173</v>
+      </c>
       <c r="C193" t="n">
         <v>25</v>
       </c>
@@ -15853,7 +15855,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43021</v>
+        <v>43048</v>
       </c>
     </row>
     <row r="194">
@@ -15863,7 +15865,9 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>25</v>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>2610</v>
@@ -15913,7 +15917,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43115</v>
+        <v>43142</v>
       </c>
     </row>
   </sheetData>
@@ -31025,7 +31029,9 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>52</v>
+      </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
@@ -31102,7 +31108,9 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>99</v>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="AB189" t="n">
-        <v>42009</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="190">
@@ -15602,10 +15602,10 @@
         <v>349</v>
       </c>
       <c r="AA190" t="n">
-        <v>6067</v>
+        <v>6068</v>
       </c>
       <c r="AB190" t="n">
-        <v>42243</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="191">
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6135</v>
+        <v>6136</v>
       </c>
       <c r="AB191" t="n">
-        <v>42545</v>
+        <v>42546</v>
       </c>
     </row>
     <row r="192">
@@ -15772,10 +15772,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6226</v>
+        <v>6227</v>
       </c>
       <c r="AB192" t="n">
-        <v>42832</v>
+        <v>42833</v>
       </c>
     </row>
     <row r="193">
@@ -15852,10 +15852,10 @@
         <v>361</v>
       </c>
       <c r="AA193" t="n">
-        <v>6298</v>
+        <v>6299</v>
       </c>
       <c r="AB193" t="n">
-        <v>43048</v>
+        <v>43049</v>
       </c>
     </row>
     <row r="194">
@@ -15872,7 +15872,9 @@
       <c r="E194" t="n">
         <v>2610</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>1059</v>
+      </c>
       <c r="G194" t="n">
         <v>1233</v>
       </c>
@@ -15890,7 +15892,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>107</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>167</v>
@@ -15915,9 +15919,11 @@
       <c r="Z194" t="n">
         <v>371</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>6395</v>
+      </c>
       <c r="AB194" t="n">
-        <v>43142</v>
+        <v>43240</v>
       </c>
     </row>
   </sheetData>
@@ -31115,7 +31121,9 @@
       <c r="E194" t="n">
         <v>99</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>35</v>
+      </c>
       <c r="G194" t="n">
         <v>54</v>
       </c>
@@ -31133,7 +31141,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>8</v>
@@ -31158,7 +31168,9 @@
       <c r="Z194" t="n">
         <v>9</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>142</v>
+      </c>
       <c r="AB194" t="n">
         <v>2013</v>
       </c>
@@ -45266,7 +45278,9 @@
       <c r="E194" t="n">
         <v>4</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="n">
         <v>5</v>
       </c>
@@ -45284,7 +45298,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>0</v>
@@ -45307,9 +45323,11 @@
       <c r="Z194" t="n">
         <v>2</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>28</v>
+      </c>
       <c r="AB194" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -57963,7 +57981,9 @@
       <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="n">
         <v>2</v>
       </c>
@@ -67858,7 +67878,9 @@
       <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -67881,7 +67903,9 @@
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr"/>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>7</v>
+      </c>
       <c r="AB194" t="n">
         <v>11</v>
       </c>
@@ -78351,7 +78375,9 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>971</v>
+      </c>
       <c r="G194" t="n">
         <v>1130</v>
       </c>
@@ -78388,7 +78414,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>6857</v>
+        <v>6861</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40170</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40446</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40823</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41172</v>
+        <v>41171</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6866</v>
+        <v>6865</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41539</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41796</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6048</v>
       </c>
       <c r="AB189" t="n">
-        <v>42010</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6068</v>
       </c>
       <c r="AB190" t="n">
-        <v>42244</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="191">
@@ -15720,7 +15720,7 @@
         <v>1730</v>
       </c>
       <c r="I192" t="n">
-        <v>7072</v>
+        <v>7084</v>
       </c>
       <c r="J192" t="n">
         <v>166</v>
@@ -15775,7 +15775,7 @@
         <v>6227</v>
       </c>
       <c r="AB192" t="n">
-        <v>42833</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="193">
@@ -15805,7 +15805,9 @@
       <c r="H193" t="n">
         <v>1765</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>7136</v>
+      </c>
       <c r="J193" t="n">
         <v>166</v>
       </c>
@@ -15855,7 +15857,7 @@
         <v>6299</v>
       </c>
       <c r="AB193" t="n">
-        <v>43049</v>
+        <v>43113</v>
       </c>
     </row>
     <row r="194">
@@ -15886,7 +15888,9 @@
         <v>166</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>274</v>
+      </c>
       <c r="M194" t="n">
         <v>1083</v>
       </c>
@@ -15923,7 +15927,7 @@
         <v>6395</v>
       </c>
       <c r="AB194" t="n">
-        <v>43240</v>
+        <v>43305</v>
       </c>
     </row>
   </sheetData>
@@ -31056,7 +31060,9 @@
       <c r="H193" t="n">
         <v>85</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>299</v>
+      </c>
       <c r="J193" t="n">
         <v>13</v>
       </c>
@@ -31135,7 +31141,9 @@
         <v>13</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>7</v>
+      </c>
       <c r="M194" t="n">
         <v>21</v>
       </c>
@@ -45287,12 +45295,16 @@
       <c r="H194" t="n">
         <v>6</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>16</v>
+      </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
       <c r="M194" t="n">
         <v>8</v>
       </c>
@@ -45327,7 +45339,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -57990,10 +58002,14 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15887,7 +15887,9 @@
       <c r="J194" t="n">
         <v>166</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1009</v>
+      </c>
       <c r="L194" t="n">
         <v>274</v>
       </c>
@@ -31140,7 +31142,9 @@
       <c r="J194" t="n">
         <v>13</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>50</v>
+      </c>
       <c r="L194" t="n">
         <v>7</v>
       </c>
@@ -45301,7 +45305,9 @@
       <c r="J194" t="n">
         <v>0</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
       <c r="L194" t="n">
         <v>3</v>
       </c>
@@ -58006,7 +58012,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
       <c r="L194" t="n">
         <v>0</v>
       </c>
@@ -67901,7 +67909,9 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15932,6 +15932,42 @@
         <v>43305</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>43305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15943,7 +15979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31187,6 +31223,42 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31198,7 +31270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45348,6 +45420,42 @@
         <v>109</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -45359,7 +45467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58045,6 +58153,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -58056,7 +58200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67936,6 +68080,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -67947,7 +68127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78443,6 +78623,42 @@
         <v>6861</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>6861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78454,7 +78670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85788,6 +86004,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15941,9 +15941,13 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>2650</v>
+      </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>1237</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -15965,7 +15969,7 @@
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>43305</v>
+        <v>43349</v>
       </c>
     </row>
   </sheetData>
@@ -31232,9 +31236,13 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>99</v>
+      </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>54</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -78634,7 +78642,9 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>1137</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -78656,7 +78666,7 @@
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6861</v>
+        <v>6868</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15376,10 +15376,10 @@
         <v>344</v>
       </c>
       <c r="AA187" t="n">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41537</v>
       </c>
     </row>
     <row r="188">
@@ -15444,10 +15444,10 @@
         <v>344</v>
       </c>
       <c r="AA188" t="n">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42009</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15602,10 +15602,10 @@
         <v>349</v>
       </c>
       <c r="AA190" t="n">
-        <v>6068</v>
+        <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42243</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="191">
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42546</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="192">
@@ -15772,10 +15772,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6227</v>
+        <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42845</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="193">
@@ -15854,10 +15854,10 @@
         <v>361</v>
       </c>
       <c r="AA193" t="n">
-        <v>6299</v>
+        <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43113</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="194">
@@ -15926,10 +15926,10 @@
         <v>371</v>
       </c>
       <c r="AA194" t="n">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43305</v>
+        <v>43304</v>
       </c>
     </row>
     <row r="195">
@@ -15967,9 +15967,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>6471</v>
+      </c>
       <c r="AB195" t="n">
-        <v>43349</v>
+        <v>43425</v>
       </c>
     </row>
   </sheetData>
@@ -31262,7 +31264,9 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>142</v>
+      </c>
       <c r="AB195" t="n">
         <v>2013</v>
       </c>
@@ -45459,9 +45463,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>30</v>
+      </c>
       <c r="AB195" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -68119,9 +68125,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>8</v>
+      </c>
       <c r="AB195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15951,7 +15951,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1022</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -15971,7 +15973,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
   </sheetData>
@@ -31248,7 +31250,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>50</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -45447,7 +45451,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -58182,7 +58188,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -68109,7 +68117,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15976,6 +15976,42 @@
         <v>43438</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>43438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15987,7 +16023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31275,6 +31311,42 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31286,7 +31358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45476,6 +45548,42 @@
         <v>111</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -45487,7 +45595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58211,6 +58319,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -58222,7 +58366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68142,6 +68286,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -68153,7 +68333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78687,6 +78867,42 @@
         <v>6868</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>6868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78698,7 +78914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86068,6 +86284,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15985,9 +15985,13 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>2673</v>
+      </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>1241</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -16009,7 +16013,7 @@
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>43438</v>
+        <v>43465</v>
       </c>
     </row>
   </sheetData>
@@ -31320,9 +31324,13 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>99</v>
+      </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>54</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -78878,7 +78886,9 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>1148</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -78900,7 +78910,7 @@
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6868</v>
+        <v>6879</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -16011,9 +16011,11 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>6513</v>
+      </c>
       <c r="AB196" t="n">
-        <v>43465</v>
+        <v>43507</v>
       </c>
     </row>
   </sheetData>
@@ -31350,7 +31352,9 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>142</v>
+      </c>
       <c r="AB196" t="n">
         <v>2013</v>
       </c>
@@ -45587,9 +45591,11 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>31</v>
+      </c>
       <c r="AB196" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -68325,7 +68331,9 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>8</v>
+      </c>
       <c r="AB196" t="n">
         <v>12</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15735,7 +15735,7 @@
         <v>1067</v>
       </c>
       <c r="N192" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="O192" t="n">
         <v>134</v>
@@ -15775,7 +15775,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42844</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="193">
@@ -15821,7 +15821,7 @@
         <v>1077</v>
       </c>
       <c r="N193" t="n">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -15857,7 +15857,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43112</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="194">
@@ -15896,7 +15896,9 @@
       <c r="M194" t="n">
         <v>1083</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>901</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>107</v>
@@ -15929,7 +15931,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43304</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="195">
@@ -15948,7 +15950,9 @@
       <c r="G195" t="n">
         <v>1237</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1820</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -15956,7 +15960,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>903</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -15977,7 +15983,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43442</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="196">
@@ -15998,7 +16004,9 @@
       <c r="G196" t="n">
         <v>1241</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1874</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -16031,7 +16039,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43527</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="197">
@@ -16045,8 +16053,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1247</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1898</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -16056,14 +16068,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>168</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>508</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>137</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -16071,7 +16087,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43541</v>
+        <v>43663</v>
       </c>
     </row>
   </sheetData>
@@ -30891,7 +30907,9 @@
         <v>7</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>84</v>
+      </c>
       <c r="O189" t="n">
         <v>3</v>
       </c>
@@ -30967,7 +30985,9 @@
       <c r="M190" t="n">
         <v>21</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>84</v>
+      </c>
       <c r="O190" t="n">
         <v>3</v>
       </c>
@@ -31051,7 +31071,9 @@
       <c r="M191" t="n">
         <v>21</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>84</v>
+      </c>
       <c r="O191" t="n">
         <v>3</v>
       </c>
@@ -31135,7 +31157,9 @@
       <c r="M192" t="n">
         <v>21</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>84</v>
+      </c>
       <c r="O192" t="n">
         <v>3</v>
       </c>
@@ -31219,7 +31243,9 @@
       <c r="M193" t="n">
         <v>21</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>84</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>0</v>
@@ -31293,7 +31319,9 @@
       <c r="M194" t="n">
         <v>21</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>84</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -31345,7 +31373,9 @@
       <c r="G195" t="n">
         <v>54</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>85</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -31395,7 +31425,9 @@
       <c r="G196" t="n">
         <v>54</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>87</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -31428,7 +31460,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="197">
@@ -31442,8 +31474,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>54</v>
+      </c>
+      <c r="H197" t="n">
+        <v>87</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -31453,14 +31489,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>9</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>25</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>7</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -31468,7 +31508,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -45598,7 +45638,9 @@
       <c r="M194" t="n">
         <v>8</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -45629,7 +45671,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195">
@@ -45644,7 +45686,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -45652,7 +45696,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -45686,7 +45732,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -45694,7 +45742,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -45732,7 +45782,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -45742,12 +45794,16 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -58431,7 +58487,9 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -58467,7 +58525,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -58475,7 +58535,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -58505,7 +58567,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -58513,7 +58577,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -58545,7 +58611,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -58555,7 +58623,9 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
@@ -68438,7 +68508,9 @@
       </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -68480,7 +68552,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -68520,7 +68594,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -79099,7 +79175,9 @@
       <c r="G195" t="n">
         <v>1137</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>164</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -79124,7 +79202,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6870</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="196">
@@ -79141,7 +79219,9 @@
       <c r="G196" t="n">
         <v>1148</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>164</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -79168,7 +79248,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6881</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="197">
@@ -79182,8 +79262,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H197" t="n">
+        <v>164</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -79200,7 +79284,9 @@
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>127</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -79208,7 +79294,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6886</v>
+        <v>6890</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15971,7 +15971,9 @@
       <c r="T195" t="n">
         <v>500</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>592</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -15983,7 +15985,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43479</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="196">
@@ -16025,7 +16027,9 @@
       <c r="T196" t="n">
         <v>500</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>592</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>137</v>
@@ -16039,7 +16043,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43618</v>
+        <v>43623</v>
       </c>
     </row>
     <row r="197">
@@ -16063,7 +16067,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1092</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -16071,12 +16077,18 @@
       <c r="R197" t="n">
         <v>168</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>731</v>
+      </c>
       <c r="T197" t="n">
         <v>508</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>592</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3561</v>
+      </c>
       <c r="W197" t="n">
         <v>137</v>
       </c>
@@ -16087,7 +16099,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43663</v>
+        <v>43692</v>
       </c>
     </row>
   </sheetData>
@@ -31392,7 +31404,9 @@
       <c r="T195" t="n">
         <v>25</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>19</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -31446,7 +31460,9 @@
       <c r="T196" t="n">
         <v>25</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>19</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>7</v>
@@ -31484,7 +31500,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>21</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -31492,12 +31510,18 @@
       <c r="R197" t="n">
         <v>9</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>18</v>
+      </c>
       <c r="T197" t="n">
         <v>25</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>19</v>
+      </c>
+      <c r="V197" t="n">
+        <v>350</v>
+      </c>
       <c r="W197" t="n">
         <v>7</v>
       </c>
@@ -45705,7 +45729,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>4</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -45717,7 +45743,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196">
@@ -45753,7 +45779,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>4</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>0</v>
@@ -45767,7 +45795,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197">
@@ -45789,7 +45817,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>8</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -45797,10 +45827,16 @@
       <c r="R197" t="n">
         <v>0</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>1</v>
+      </c>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>4</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="n">
         <v>0</v>
       </c>
@@ -45811,7 +45847,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -58544,7 +58580,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>2</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -58588,7 +58626,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
@@ -58618,7 +58658,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -58628,15 +58670,19 @@
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -68644,7 +68690,9 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79192,7 +79240,9 @@
       <c r="T195" t="n">
         <v>456</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>82</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -79202,7 +79252,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6871</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="196">
@@ -79236,7 +79286,9 @@
       <c r="T196" t="n">
         <v>456</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>82</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>127</v>
@@ -79248,7 +79300,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6882</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="197">
@@ -79282,8 +79334,12 @@
       <c r="T197" t="n">
         <v>460</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>82</v>
+      </c>
+      <c r="V197" t="n">
+        <v>929</v>
+      </c>
       <c r="W197" t="n">
         <v>127</v>
       </c>
@@ -79294,7 +79350,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6890</v>
+        <v>6892</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -16053,9 +16053,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>25</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2681</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>1247</v>
@@ -16064,7 +16068,9 @@
         <v>1898</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>166</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -16099,7 +16105,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43692</v>
+        <v>43700</v>
       </c>
     </row>
   </sheetData>
@@ -31486,9 +31492,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>99</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>54</v>
@@ -31497,7 +31507,9 @@
         <v>87</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>13</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45807,14 +45819,18 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
         <v>5</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45847,7 +45863,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58648,7 +58664,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
@@ -68673,7 +68691,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -68699,7 +68719,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15866,7 +15866,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>2200</v>
+      </c>
       <c r="C194" t="n">
         <v>25</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43318</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="195">
@@ -15940,7 +15942,9 @@
           <t>2020-09-05</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>2220</v>
+      </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
@@ -15985,7 +15989,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43484</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="196">
@@ -15994,7 +15998,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>2225</v>
+      </c>
       <c r="C196" t="n">
         <v>25</v>
       </c>
@@ -16043,7 +16049,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43623</v>
+        <v>43675</v>
       </c>
     </row>
     <row r="197">
@@ -16056,7 +16062,9 @@
       <c r="C197" t="n">
         <v>25</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>139</v>
+      </c>
       <c r="E197" t="n">
         <v>2681</v>
       </c>
@@ -16105,7 +16113,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43700</v>
+        <v>43756</v>
       </c>
     </row>
   </sheetData>
@@ -31307,7 +31315,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>52</v>
+      </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
@@ -31433,7 +31443,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>52</v>
+      </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
@@ -31495,7 +31507,9 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
       <c r="E197" t="n">
         <v>99</v>
       </c>
@@ -45818,7 +45832,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>3</v>
       </c>
@@ -45863,7 +45879,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -58663,7 +58679,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15950,7 +15950,9 @@
       <c r="E195" t="n">
         <v>2650</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>1063</v>
+      </c>
       <c r="G195" t="n">
         <v>1237</v>
       </c>
@@ -15986,10 +15988,10 @@
         <v>371</v>
       </c>
       <c r="AA195" t="n">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43531</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="196">
@@ -16008,7 +16010,9 @@
       <c r="E196" t="n">
         <v>2673</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>1067</v>
+      </c>
       <c r="G196" t="n">
         <v>1241</v>
       </c>
@@ -16046,10 +16050,10 @@
         <v>371</v>
       </c>
       <c r="AA196" t="n">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43675</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="197">
@@ -16068,7 +16072,9 @@
       <c r="E197" t="n">
         <v>2681</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>1067</v>
+      </c>
       <c r="G197" t="n">
         <v>1247</v>
       </c>
@@ -16086,7 +16092,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>107</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>168</v>
@@ -16111,9 +16119,11 @@
       <c r="Z197" t="n">
         <v>377</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>6558</v>
+      </c>
       <c r="AB197" t="n">
-        <v>43756</v>
+        <v>43809</v>
       </c>
     </row>
   </sheetData>
@@ -30708,9 +30718,7 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
         <v>8</v>
       </c>
@@ -30742,7 +30750,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="187">
@@ -30828,7 +30836,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="188">
@@ -30896,7 +30904,7 @@
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="189">
@@ -30940,9 +30948,7 @@
         <v>3</v>
       </c>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="n">
@@ -30966,7 +30972,7 @@
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="190">
@@ -31020,9 +31026,7 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>8</v>
       </c>
@@ -31054,7 +31058,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191">
@@ -31106,9 +31110,7 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>8</v>
       </c>
@@ -31140,7 +31142,7 @@
         <v>142</v>
       </c>
       <c r="AB191" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="192">
@@ -31192,9 +31194,7 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>8</v>
       </c>
@@ -31224,7 +31224,7 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="193">
@@ -31276,9 +31276,7 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>8</v>
       </c>
@@ -31306,7 +31304,7 @@
         <v>142</v>
       </c>
       <c r="AB193" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="194">
@@ -31382,7 +31380,7 @@
         <v>142</v>
       </c>
       <c r="AB194" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="195">
@@ -31397,7 +31395,9 @@
       <c r="E195" t="n">
         <v>99</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
       <c r="G195" t="n">
         <v>54</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>142</v>
       </c>
       <c r="AB195" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="196">
@@ -31453,7 +31453,9 @@
       <c r="E196" t="n">
         <v>99</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>35</v>
+      </c>
       <c r="G196" t="n">
         <v>54</v>
       </c>
@@ -31513,7 +31515,9 @@
       <c r="E197" t="n">
         <v>99</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>35</v>
+      </c>
       <c r="G197" t="n">
         <v>54</v>
       </c>
@@ -31531,7 +31535,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>9</v>
@@ -31556,7 +31562,9 @@
       <c r="Z197" t="n">
         <v>9</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>142</v>
+      </c>
       <c r="AB197" t="n">
         <v>2014</v>
       </c>
@@ -45734,8 +45742,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6</v>
+      </c>
       <c r="H195" t="n">
         <v>5</v>
       </c>
@@ -45769,7 +45781,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196">
@@ -45782,8 +45794,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5</v>
+      </c>
       <c r="H196" t="n">
         <v>5</v>
       </c>
@@ -45838,8 +45854,12 @@
       <c r="E197" t="n">
         <v>3</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
       <c r="H197" t="n">
         <v>5</v>
       </c>
@@ -45854,7 +45874,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>0</v>
@@ -45877,9 +45899,11 @@
       <c r="Z197" t="n">
         <v>1</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>34</v>
+      </c>
       <c r="AB197" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -58591,8 +58615,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
@@ -58635,8 +58663,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
@@ -58685,8 +58717,12 @@
       <c r="E197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
       <c r="H197" t="n">
         <v>1</v>
       </c>
@@ -58718,7 +58754,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -68624,7 +68660,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -68666,7 +68704,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -68712,7 +68752,9 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -68735,7 +68777,9 @@
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>8</v>
+      </c>
       <c r="AB197" t="n">
         <v>11</v>
       </c>
@@ -79257,7 +79301,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>977</v>
+      </c>
       <c r="G195" t="n">
         <v>1137</v>
       </c>
@@ -79290,7 +79336,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6872</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="196">
@@ -79303,7 +79349,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>981</v>
+      </c>
       <c r="G196" t="n">
         <v>1148</v>
       </c>
@@ -79338,7 +79386,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6883</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="197">
@@ -79351,7 +79399,9 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>987</v>
+      </c>
       <c r="G197" t="n">
         <v>1151</v>
       </c>
@@ -79388,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6892</v>
+        <v>6908</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -16112,7 +16112,7 @@
         <v>3561</v>
       </c>
       <c r="W197" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -16123,7 +16123,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
     </row>
   </sheetData>
@@ -79429,7 +79429,7 @@
         <v>929</v>
       </c>
       <c r="W197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79438,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6908</v>
+        <v>6909</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15596,7 +15596,7 @@
         <v>7242</v>
       </c>
       <c r="Y190" t="n">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="Z190" t="n">
         <v>349</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42242</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="191">
@@ -15682,7 +15682,7 @@
         <v>7330</v>
       </c>
       <c r="Y191" t="n">
-        <v>2371</v>
+        <v>2387</v>
       </c>
       <c r="Z191" t="n">
         <v>353</v>
@@ -15691,7 +15691,7 @@
         <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42545</v>
+        <v>42561</v>
       </c>
     </row>
     <row r="192">
@@ -15767,7 +15767,9 @@
       <c r="X192" t="n">
         <v>7380</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>2400</v>
+      </c>
       <c r="Z192" t="n">
         <v>354</v>
       </c>
@@ -15775,7 +15777,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42846</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="193">
@@ -15849,7 +15851,9 @@
         <v>137</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>2416</v>
+      </c>
       <c r="Z193" t="n">
         <v>361</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43122</v>
+        <v>43167</v>
       </c>
     </row>
     <row r="194">
@@ -15925,7 +15929,9 @@
         <v>137</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>2428</v>
+      </c>
       <c r="Z194" t="n">
         <v>371</v>
       </c>
@@ -15933,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43345</v>
+        <v>43402</v>
       </c>
     </row>
     <row r="195">
@@ -15983,7 +15989,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>2437</v>
+      </c>
       <c r="Z195" t="n">
         <v>371</v>
       </c>
@@ -15991,7 +15999,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43536</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="196">
@@ -16045,7 +16053,9 @@
         <v>137</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z196" t="n">
         <v>371</v>
       </c>
@@ -16053,7 +16063,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43684</v>
+        <v>43752</v>
       </c>
     </row>
     <row r="197">
@@ -16115,7 +16125,9 @@
         <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z197" t="n">
         <v>377</v>
       </c>
@@ -16123,7 +16135,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43810</v>
+        <v>43878</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31228,9 @@
       <c r="X192" t="n">
         <v>432</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>155</v>
+      </c>
       <c r="Z192" t="n">
         <v>9</v>
       </c>
@@ -31296,7 +31310,9 @@
         <v>7</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>155</v>
+      </c>
       <c r="Z193" t="n">
         <v>9</v>
       </c>
@@ -31372,7 +31388,9 @@
         <v>7</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>155</v>
+      </c>
       <c r="Z194" t="n">
         <v>9</v>
       </c>
@@ -31426,7 +31444,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>155</v>
+      </c>
       <c r="Z195" t="n">
         <v>9</v>
       </c>
@@ -31488,7 +31508,9 @@
         <v>7</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>155</v>
+      </c>
       <c r="Z196" t="n">
         <v>9</v>
       </c>
@@ -31558,7 +31580,9 @@
         <v>7</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>155</v>
+      </c>
       <c r="Z197" t="n">
         <v>9</v>
       </c>
@@ -45575,7 +45599,9 @@
       <c r="X192" t="n">
         <v>13</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
       <c r="Z192" t="n">
         <v>3</v>
       </c>
@@ -45649,7 +45675,9 @@
         <v>0</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>3</v>
+      </c>
       <c r="Z193" t="n">
         <v>2</v>
       </c>
@@ -45721,7 +45749,9 @@
         <v>0</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
       <c r="Z194" t="n">
         <v>2</v>
       </c>
@@ -45773,7 +45803,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>3</v>
+      </c>
       <c r="Z195" t="n">
         <v>2</v>
       </c>
@@ -45829,7 +45861,9 @@
         <v>0</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
       <c r="Z196" t="n">
         <v>2</v>
       </c>
@@ -45895,7 +45929,9 @@
         <v>0</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>3</v>
+      </c>
       <c r="Z197" t="n">
         <v>1</v>
       </c>
@@ -58476,7 +58512,9 @@
       <c r="X192" t="n">
         <v>4</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
@@ -58538,7 +58576,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
@@ -58598,7 +58638,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
@@ -58646,7 +58688,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
@@ -58696,7 +58740,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
@@ -58750,7 +58796,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
@@ -68545,7 +68593,9 @@
       </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="n">
         <v>7</v>
@@ -68593,7 +68643,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="n">
         <v>7</v>
@@ -68641,7 +68693,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="n">
         <v>7</v>
@@ -68685,7 +68739,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="n">
         <v>8</v>
@@ -68731,7 +68787,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="n">
         <v>8</v>
@@ -68775,7 +68833,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="n">
         <v>8</v>
@@ -79178,7 +79238,9 @@
         <v>127</v>
       </c>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>320</v>
+      </c>
       <c r="Z192" t="n">
         <v>314</v>
       </c>
@@ -79230,7 +79292,9 @@
         <v>127</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>320</v>
+      </c>
       <c r="Z193" t="n">
         <v>316</v>
       </c>
@@ -79282,7 +79346,9 @@
         <v>127</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>320</v>
+      </c>
       <c r="Z194" t="n">
         <v>317</v>
       </c>
@@ -79330,7 +79396,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>320</v>
+      </c>
       <c r="Z195" t="n">
         <v>317</v>
       </c>
@@ -79380,7 +79448,9 @@
         <v>127</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>320</v>
+      </c>
       <c r="Z196" t="n">
         <v>317</v>
       </c>
@@ -79432,7 +79502,9 @@
         <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>320</v>
+      </c>
       <c r="Z197" t="n">
         <v>318</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15897,7 +15897,7 @@
         <v>1009</v>
       </c>
       <c r="L194" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M194" t="n">
         <v>1083</v>
@@ -15939,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43402</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="195">
@@ -15970,7 +15970,9 @@
       <c r="K195" t="n">
         <v>1022</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>277</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>903</v>
@@ -15999,7 +16001,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43602</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="196">
@@ -16032,7 +16034,9 @@
       <c r="K196" t="n">
         <v>1022</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>277</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -16063,7 +16067,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43752</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="197">
@@ -16096,7 +16100,9 @@
         <v>166</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>279</v>
+      </c>
       <c r="M197" t="n">
         <v>1092</v>
       </c>
@@ -16135,7 +16141,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43878</v>
+        <v>43883</v>
       </c>
     </row>
   </sheetData>
@@ -31427,7 +31433,9 @@
       <c r="K195" t="n">
         <v>50</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>7</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -31487,7 +31495,9 @@
       <c r="K196" t="n">
         <v>50</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>7</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -31551,7 +31561,9 @@
         <v>13</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>7</v>
+      </c>
       <c r="M197" t="n">
         <v>21</v>
       </c>
@@ -45643,7 +45655,7 @@
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M193" t="n">
         <v>7</v>
@@ -45685,7 +45697,7 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194">
@@ -45719,7 +45731,7 @@
         <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M194" t="n">
         <v>8</v>
@@ -45759,7 +45771,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195">
@@ -45786,7 +45798,9 @@
       <c r="K195" t="n">
         <v>1</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>4</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>1</v>
@@ -45813,7 +45827,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="196">
@@ -45840,7 +45854,9 @@
       <c r="K196" t="n">
         <v>1</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>1</v>
@@ -45871,7 +45887,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197">
@@ -45902,7 +45918,9 @@
         <v>0</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>4</v>
+      </c>
       <c r="M197" t="n">
         <v>8</v>
       </c>
@@ -45939,7 +45957,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58671,7 +58689,9 @@
       <c r="K195" t="n">
         <v>0</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>0</v>
@@ -58721,7 +58741,9 @@
       <c r="K196" t="n">
         <v>0</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>0</v>
@@ -58775,7 +58797,9 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
       <c r="M197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15979,7 +15979,9 @@
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>1306</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -16001,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43605</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="196">
@@ -16099,7 +16101,9 @@
       <c r="J197" t="n">
         <v>166</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1023</v>
+      </c>
       <c r="L197" t="n">
         <v>279</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43883</v>
+        <v>43884</v>
       </c>
     </row>
   </sheetData>
@@ -31440,7 +31444,9 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>41</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -31560,7 +31566,9 @@
       <c r="J197" t="n">
         <v>13</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>50</v>
+      </c>
       <c r="L197" t="n">
         <v>7</v>
       </c>
@@ -45917,7 +45925,9 @@
       <c r="J197" t="n">
         <v>0</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
       <c r="L197" t="n">
         <v>4</v>
       </c>
@@ -58796,7 +58806,9 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="n">
         <v>0</v>
       </c>
@@ -68841,7 +68853,9 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16115,7 +16115,9 @@
       <c r="P197" t="n">
         <v>107</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1321</v>
+      </c>
       <c r="R197" t="n">
         <v>168</v>
       </c>
@@ -16145,7 +16147,43 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43884</v>
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>43895</v>
       </c>
     </row>
   </sheetData>
@@ -16159,7 +16197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31580,7 +31618,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>41</v>
+      </c>
       <c r="R197" t="n">
         <v>9</v>
       </c>
@@ -31610,6 +31650,42 @@
         <v>142</v>
       </c>
       <c r="AB197" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -31624,7 +31700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45939,7 +46015,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -45967,6 +46045,42 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>110</v>
       </c>
     </row>
@@ -45981,7 +46095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58818,7 +58932,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -58838,6 +58954,42 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58852,7 +59004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68861,7 +69013,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
@@ -68879,6 +69033,42 @@
         <v>8</v>
       </c>
       <c r="AB197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -68893,7 +69083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79551,6 +79741,42 @@
         <v>6909</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>6909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -79562,7 +79788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87004,6 +87230,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009010000..xlsx
+++ b/cache/daily/ch/202009010000..xlsx
@@ -15975,7 +15975,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -16003,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43617</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="196">
@@ -16040,7 +16040,9 @@
         <v>277</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>914</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -16069,7 +16071,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43755</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="197">
@@ -16110,7 +16112,9 @@
       <c r="M197" t="n">
         <v>1092</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>916</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>107</v>
@@ -16147,7 +16151,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43895</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="198">
@@ -16161,7 +16165,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1254</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -16172,18 +16178,26 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>171</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>511</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>3565</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>384</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>43895</v>
+        <v>43932</v>
       </c>
     </row>
   </sheetData>
@@ -31479,7 +31493,9 @@
         <v>7</v>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>84</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
@@ -31543,7 +31559,9 @@
         <v>7</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>85</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -31572,7 +31590,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="197">
@@ -31622,7 +31640,7 @@
         <v>41</v>
       </c>
       <c r="R197" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S197" t="n">
         <v>18</v>
@@ -31664,7 +31682,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>54</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -31675,15 +31695,23 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>8</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>25</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>350</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>9</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>2014</v>
@@ -46010,7 +46038,9 @@
       <c r="M197" t="n">
         <v>8</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>0</v>
@@ -46045,7 +46075,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198">
@@ -46059,7 +46089,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -46070,15 +46102,21 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>110</v>
@@ -58929,7 +58967,9 @@
       <c r="M197" t="n">
         <v>2</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -58968,7 +59008,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -58979,11 +59021,15 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -69010,7 +69056,9 @@
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -69062,7 +69110,9 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -79752,7 +79802,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1154</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -79765,16 +79817,22 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>464</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>929</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>327</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>6909</v>
+        <v>6925</v>
       </c>
     </row>
   </sheetData>
